--- a/TradeSimulation/data/Test-BuySellTrade.xlsx
+++ b/TradeSimulation/data/Test-BuySellTrade.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PythonDev\MyQuantFinProject\MyYoutube-Master\FinDataAnalystics\Test-BuySellSimulation\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PythonDev\MyQuantFinProject\FinQuant\TradeSimulation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE271E89-FF4C-4CC4-8391-3A5AE0DD5A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7C4217-2F86-41A0-9DC0-0ECB22215E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Commision" sheetId="2" r:id="rId1"/>
-    <sheet name="BuySell_Swing" sheetId="3" r:id="rId2"/>
-    <sheet name="BuySell" sheetId="1" r:id="rId3"/>
+    <sheet name="Fee" sheetId="2" r:id="rId1"/>
+    <sheet name="BuySell" sheetId="1" r:id="rId2"/>
+    <sheet name="BuySell_Swing" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>trade_date</t>
   </si>
@@ -47,25 +47,67 @@
     <t>symbol</t>
   </si>
   <si>
-    <t>buy_comm_pct</t>
-  </si>
-  <si>
-    <t>sell_comm_pct</t>
-  </si>
-  <si>
     <t>ACWI</t>
   </si>
   <si>
+    <t>AAXJ</t>
+  </si>
+  <si>
+    <t>BITW</t>
+  </si>
+  <si>
+    <t>SPY</t>
+  </si>
+  <si>
+    <t>ASP-SME</t>
+  </si>
+  <si>
+    <t>ASP-THEQ</t>
+  </si>
+  <si>
+    <t>ASP-T12</t>
+  </si>
+  <si>
+    <t>KKP-SM-CAP</t>
+  </si>
+  <si>
+    <t>KKP-TQG</t>
+  </si>
+  <si>
+    <t>KKP-ACT-EQ-A</t>
+  </si>
+  <si>
+    <t>TISCOFLEXP</t>
+  </si>
+  <si>
+    <t>TSF-A</t>
+  </si>
+  <si>
+    <t>TISCOMS-A</t>
+  </si>
+  <si>
+    <t>KFDYNAMIC</t>
+  </si>
+  <si>
+    <t>BMSCG.BK</t>
+  </si>
+  <si>
+    <t>BMSCITH.BK</t>
+  </si>
+  <si>
+    <t>TDEX.BK</t>
+  </si>
+  <si>
+    <t>GLD</t>
+  </si>
+  <si>
     <t>QQQ</t>
   </si>
   <si>
-    <t>AAXJ</t>
-  </si>
-  <si>
-    <t>BITW</t>
-  </si>
-  <si>
-    <t>SPY</t>
+    <t>buy_fee_pct</t>
+  </si>
+  <si>
+    <t>sell_fee_pct</t>
   </si>
 </sst>
 </file>
@@ -140,7 +182,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
@@ -162,15 +207,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>502209</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>108232</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>133355</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -193,8 +238,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="209550" y="1739900"/>
-          <a:ext cx="10884459" cy="5480332"/>
+          <a:off x="0" y="1295400"/>
+          <a:ext cx="12706355" cy="6384925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -207,6 +252,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{99082355-16A7-4C4F-85B5-84AF3D1E24B9}" name="Table2" displayName="Table2" ref="A1:C5" totalsRowShown="0">
+  <autoFilter ref="A1:C5" xr:uid="{99082355-16A7-4C4F-85B5-84AF3D1E24B9}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{6E182426-ECAB-4E5C-A194-C0FA6F094590}" name="trade_date" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{F5A46FA3-3EF5-49C0-822A-95876BF891A7}" name="portion_pct"/>
+    <tableColumn id="3" xr3:uid="{47F6ED3D-032A-45AD-8118-8BEE01D90F84}" name="action"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3B147CF8-6273-4683-AB8C-4BA2B84B39E8}" name="Table1" displayName="Table1" ref="A1:C9" totalsRowShown="0">
   <autoFilter ref="A1:C9" xr:uid="{3B147CF8-6273-4683-AB8C-4BA2B84B39E8}"/>
   <tableColumns count="3">
@@ -481,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA4E21B0-0AB8-4945-8D26-41FA090DDAC7}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -499,10 +556,10 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -518,45 +575,199 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>0.5</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>0.5</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>0.5</v>
+      </c>
+      <c r="C12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
         <v>1</v>
       </c>
     </row>
@@ -566,11 +777,93 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.9140625" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="3" max="3" width="20.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>44869</v>
+      </c>
+      <c r="B2">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>44890</v>
+      </c>
+      <c r="B3">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>44930</v>
+      </c>
+      <c r="B4">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>44966</v>
+      </c>
+      <c r="B5">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D99DDD9-AE9C-41BF-8AAC-074819DDF9C7}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -685,83 +978,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15.9140625" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
-    <col min="3" max="3" width="20.58203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>44869</v>
-      </c>
-      <c r="B2">
-        <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>44890</v>
-      </c>
-      <c r="B3">
-        <v>50</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>44930</v>
-      </c>
-      <c r="B4">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>44966</v>
-      </c>
-      <c r="B5">
-        <v>50</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/TradeSimulation/data/Test-BuySellTrade.xlsx
+++ b/TradeSimulation/data/Test-BuySellTrade.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PythonDev\MyQuantFinProject\FinQuant\TradeSimulation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7C4217-2F86-41A0-9DC0-0ECB22215E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392B6E41-DE6E-448E-B849-0CE24A236066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fee" sheetId="2" r:id="rId1"/>
-    <sheet name="BuySell" sheetId="1" r:id="rId2"/>
+    <sheet name="BuySell_Buy_Hold" sheetId="1" r:id="rId2"/>
     <sheet name="BuySell_Swing" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -207,22 +207,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>133355</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>34925</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>171996</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>162201</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{618C0C04-200E-4D1D-8FAB-67F32324EDBC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43F51BE0-B885-41E0-B004-800C52817D04}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -238,8 +238,57 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1295400"/>
-          <a:ext cx="12706355" cy="6384925"/>
+          <a:off x="133350" y="1209675"/>
+          <a:ext cx="10601871" cy="5467626"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>419651</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>35214</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF688CEF-1954-4084-A39C-EC01C65007D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="638175" y="1838325"/>
+          <a:ext cx="10716176" cy="5616864"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -540,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA4E21B0-0AB8-4945-8D26-41FA090DDAC7}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -780,8 +829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -863,7 +912,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -919,7 +968,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
-        <v>44910</v>
+        <v>44909</v>
       </c>
       <c r="B5" s="5">
         <v>50</v>
@@ -930,7 +979,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
-        <v>44930</v>
+        <v>44936</v>
       </c>
       <c r="B6" s="7">
         <v>50</v>
@@ -974,8 +1023,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/TradeSimulation/data/Test-BuySellTrade.xlsx
+++ b/TradeSimulation/data/Test-BuySellTrade.xlsx
@@ -8,26 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PythonDev\MyQuantFinProject\FinQuant\TradeSimulation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392B6E41-DE6E-448E-B849-0CE24A236066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEED0DE0-1E6C-4459-A20D-202E40477DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fee" sheetId="2" r:id="rId1"/>
     <sheet name="BuySell_Buy_Hold" sheetId="1" r:id="rId2"/>
     <sheet name="BuySell_Swing" sheetId="3" r:id="rId3"/>
+    <sheet name="Tech" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
   <si>
     <t>trade_date</t>
   </si>
@@ -108,13 +118,22 @@
   </si>
   <si>
     <t>sell_fee_pct</t>
+  </si>
+  <si>
+    <t>XLK</t>
+  </si>
+  <si>
+    <t>IGM</t>
+  </si>
+  <si>
+    <t>0P00019PRH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,8 +141,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -154,8 +181,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -163,11 +196,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -178,6 +242,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -587,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA4E21B0-0AB8-4945-8D26-41FA090DDAC7}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -622,12 +689,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B3">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -635,10 +702,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -646,10 +713,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -657,10 +724,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -668,10 +735,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -679,7 +746,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>0.5</v>
@@ -690,10 +757,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -701,10 +768,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -712,10 +779,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -723,29 +790,29 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -756,7 +823,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -767,7 +834,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -778,18 +845,18 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -800,24 +867,57 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -829,8 +929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -912,7 +1012,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1028,4 +1128,145 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{524087AF-A327-4165-8F4F-F78353AF99DB}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
+    <col min="2" max="2" width="18.25" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>44743</v>
+      </c>
+      <c r="B2">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>44762</v>
+      </c>
+      <c r="B3">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>44770</v>
+      </c>
+      <c r="B4">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>44791</v>
+      </c>
+      <c r="B5">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>44798</v>
+      </c>
+      <c r="B6">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>44869</v>
+      </c>
+      <c r="B7">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>44875</v>
+      </c>
+      <c r="B8">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>44932</v>
+      </c>
+      <c r="B9">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>44946</v>
+      </c>
+      <c r="B10">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>44972</v>
+      </c>
+      <c r="B11">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>